--- a/biology/Médecine/René_Küss/René_Küss.xlsx
+++ b/biology/Médecine/René_Küss/René_Küss.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_K%C3%BCss</t>
+          <t>René_Küss</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">René Küss, né le 3 mai 1913 à Paris et mort dans la même ville le 20 juin 2006[1], est un chirurgien et professeur français, pionnier de la transplantation rénale et grand maître de l'urologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Küss, né le 3 mai 1913 à Paris et mort dans la même ville le 20 juin 2006, est un chirurgien et professeur français, pionnier de la transplantation rénale et grand maître de l'urologie.
 Membre de l'Académie de médecine, il a reçu en 2002, le prix Medawar, la plus haute distinction scientifique dans le domaine de la transplantation.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_K%C3%BCss</t>
+          <t>René_Küss</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Paris en 1913, René Küss est élevé dans l'hôtel particulier de la rue du Général Clergerie, appartenant à ses parents, où il côtoya ministres, professeurs, médecins, artistes et écrivains, tels que Georges Duhamel, Pasteur Vallery Radot, Henri Mondor, André Siegfried.
 Sa famille comprend une longue lignée de médecins, parmi eux : Emile Küss (1815-1871) qui découvrit avec Ludwig la fonction de réabsorption du tube urinifère, Georges Küss (1867-1936) éminent phtisiologue et premier président des sanatoriums en France, et son père Georges Küss (1877-1966) chirurgien à la Pitié, connu pour ses prostatectomie par voie hypogastrique et président de l'Académie de chirurgie en 1949. Ce dernier lui fit découvrir la salle d'opération dès l'âge de dix ans et lui infléchira la passion de la médecine, "René tu seras chirurgien". 
@@ -527,7 +541,7 @@
 En 1972, il reçoit le titre de Professeur de clinique urologique et prend la direction du nouveau service d'urologie du CHU Pitié-Salpétrière. La même année, il est l’un des membres fondateurs de la Société française de transplantation, la première en Europe.
 En 1975, il fonde Les Séminaires d’Uro-Néphrologie de la Pitié-Salpêtrière avec Marcel Legrain, Claude Jacobs et Christian Chatelain, avec une innovation importante : l’unification uro-néphrologique dont le succès en sera considérable.
 Il devient membre de l'Académie nationale de médecine en 1979, avant d'en être  nommé président pour l'année 1987. Il sera également élu docteur honoris causa de plusieurs universités étrangères, dont Moscou, Pékin et Athènes.
-René Küss pratiqua aussi de nombreux sports et le rallye automobile. Il participa en 1954 avec André Siboulet au rallye Monte-Carlo sur Simca[2],[3].
+René Küss pratiqua aussi de nombreux sports et le rallye automobile. Il participa en 1954 avec André Siboulet au rallye Monte-Carlo sur Simca,.
 </t>
         </is>
       </c>
@@ -538,7 +552,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_K%C3%BCss</t>
+          <t>René_Küss</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,9 +570,11 @@
           <t>Collection d'Art</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grand amateur d'art, particulièrement de peinture impressionniste et postimpressionniste, le professeur Küss est par ailleurs connu pour son importante collection de tableaux. Parmi les signatures réunies dans cet ensemble : Boudin, Jongkind, Toulouse-Lautrec, Forain, Vuillard, Sisley, Gauguin, Renoir, Rouault, Valtat, Ricci, Pittoni, Pancini, Jeaurat, Watteau, Tiepolo, Van Loo, Guardi ou encore Bonnard. Il fit partie pendant plus de 20 ans de la Société des artistes honfleurais et organisa en 1992 l'exposition des œuvres d'Eugène Boudin. Après sa mort, cette collection fait l'objet d'une vente aux enchères par les soins de la maison Christie's le 1er décembre 2006 pour plus de 4 millions d'euros[4],[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grand amateur d'art, particulièrement de peinture impressionniste et postimpressionniste, le professeur Küss est par ailleurs connu pour son importante collection de tableaux. Parmi les signatures réunies dans cet ensemble : Boudin, Jongkind, Toulouse-Lautrec, Forain, Vuillard, Sisley, Gauguin, Renoir, Rouault, Valtat, Ricci, Pittoni, Pancini, Jeaurat, Watteau, Tiepolo, Van Loo, Guardi ou encore Bonnard. Il fit partie pendant plus de 20 ans de la Société des artistes honfleurais et organisa en 1992 l'exposition des œuvres d'Eugène Boudin. Après sa mort, cette collection fait l'objet d'une vente aux enchères par les soins de la maison Christie's le 1er décembre 2006 pour plus de 4 millions d'euros,
 </t>
         </is>
       </c>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_K%C3%BCss</t>
+          <t>René_Küss</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Croix de guerre 1939-1945 avec palme.
  Commandeur de la Légion d'honneur (1992).
